--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4016.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4016.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.651655226257138</v>
+        <v>5.326106071472168</v>
       </c>
       <c r="B1">
-        <v>2.536404680780634</v>
+        <v>5.890065670013428</v>
       </c>
       <c r="C1">
-        <v>2.891870946025624</v>
+        <v>7.081566333770752</v>
       </c>
       <c r="D1">
-        <v>3.432281863528687</v>
+        <v>9.575989723205566</v>
       </c>
       <c r="E1">
-        <v>2.10900919237618</v>
+        <v>4.582254886627197</v>
       </c>
     </row>
   </sheetData>
